--- a/data/trans_orig/IP3109_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3109_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DE2F751-90D6-4850-B8A2-FA6B5110EC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA4B9E89-EE01-4206-9D2C-2C0539A547B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{042E6A54-8302-4C4F-8D0C-7D9188A9B3F1}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5E276E83-7A6A-4502-86BC-C0938C5B6935}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,6 +68,96 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Todos los días</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>5 ó 6 veces semana</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>3 ó 4 veces semana</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
     <t>1 ó 2 veces semana</t>
   </si>
   <si>
@@ -98,123 +188,258 @@
     <t>7,34%</t>
   </si>
   <si>
-    <t>3 ó 4 veces semana</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>5 ó 6 veces semana</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
+    <t>menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>Todos los días</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>menos de 1 vez semana</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
     <t>2,98%</t>
   </si>
   <si>
@@ -236,64 +461,25 @@
     <t>3,11%</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
     <t>4,47%</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
   </si>
   <si>
     <t>0,79%</t>
@@ -305,9 +491,6 @@
     <t>2,13%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
     <t>0,5%</t>
   </si>
   <si>
@@ -317,190 +500,88 @@
     <t>1,04%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
   </si>
   <si>
     <t>2,07%</t>
@@ -524,58 +605,22 @@
     <t>2,44%</t>
   </si>
   <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
   </si>
   <si>
     <t>0,65%</t>
@@ -590,55 +635,10 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
     <t>0,36%</t>
   </si>
   <si>
     <t>1,27%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1A4C89-AAA6-4222-8CD0-54343559A834}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C828C0A1-7DB7-4158-8C97-309180088505}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1148,10 +1148,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="D4" s="7">
-        <v>5715</v>
+        <v>68291</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1163,10 +1163,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="I4" s="7">
-        <v>3804</v>
+        <v>64021</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1178,10 +1178,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="N4" s="7">
-        <v>9519</v>
+        <v>132312</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1199,10 +1199,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D5" s="7">
-        <v>10692</v>
+        <v>17881</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1214,10 +1214,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I5" s="7">
-        <v>8112</v>
+        <v>16790</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1229,10 +1229,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="N5" s="7">
-        <v>18804</v>
+        <v>34671</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1250,10 +1250,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D6" s="7">
-        <v>17881</v>
+        <v>10692</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1265,10 +1265,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I6" s="7">
-        <v>16790</v>
+        <v>8112</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1280,10 +1280,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="N6" s="7">
-        <v>34671</v>
+        <v>18804</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1301,10 +1301,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>5715</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1316,82 +1316,82 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>3804</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>9519</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>68291</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>64021</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="M8" s="7">
-        <v>240</v>
-      </c>
-      <c r="N8" s="7">
-        <v>132312</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>55</v>
@@ -1409,13 +1409,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1424,13 +1424,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -1439,13 +1439,13 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1507,10 +1507,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="D11" s="7">
-        <v>11974</v>
+        <v>133127</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
@@ -1522,10 +1522,10 @@
         <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="I11" s="7">
-        <v>11385</v>
+        <v>139711</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>62</v>
@@ -1537,10 +1537,10 @@
         <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>33</v>
+        <v>362</v>
       </c>
       <c r="N11" s="7">
-        <v>23359</v>
+        <v>272838</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>65</v>
@@ -1558,10 +1558,10 @@
         <v>20</v>
       </c>
       <c r="C12" s="7">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D12" s="7">
-        <v>37697</v>
+        <v>34481</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>68</v>
@@ -1573,10 +1573,10 @@
         <v>70</v>
       </c>
       <c r="H12" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I12" s="7">
-        <v>36564</v>
+        <v>33747</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>71</v>
@@ -1588,10 +1588,10 @@
         <v>73</v>
       </c>
       <c r="M12" s="7">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="N12" s="7">
-        <v>74262</v>
+        <v>68228</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>74</v>
@@ -1609,10 +1609,10 @@
         <v>30</v>
       </c>
       <c r="C13" s="7">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7">
-        <v>92320</v>
+        <v>30316</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>77</v>
@@ -1624,10 +1624,10 @@
         <v>79</v>
       </c>
       <c r="H13" s="7">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>71706</v>
+        <v>17697</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>80</v>
@@ -1639,10 +1639,10 @@
         <v>82</v>
       </c>
       <c r="M13" s="7">
-        <v>205</v>
+        <v>69</v>
       </c>
       <c r="N13" s="7">
-        <v>164025</v>
+        <v>48013</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>83</v>
@@ -1660,10 +1660,10 @@
         <v>40</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>3190</v>
+        <v>3659</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>86</v>
@@ -1675,10 +1675,10 @@
         <v>88</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I14" s="7">
-        <v>4628</v>
+        <v>5993</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>89</v>
@@ -1690,10 +1690,10 @@
         <v>91</v>
       </c>
       <c r="M14" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N14" s="7">
-        <v>7818</v>
+        <v>9652</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>92</v>
@@ -1708,52 +1708,52 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C15" s="7">
-        <v>293</v>
+        <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>256941</v>
+        <v>906</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>95</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>703</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="7">
-        <v>290</v>
-      </c>
-      <c r="I15" s="7">
-        <v>223207</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>2</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1609</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="P15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="M15" s="7">
-        <v>583</v>
-      </c>
-      <c r="N15" s="7">
-        <v>480147</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1762,49 +1762,49 @@
         <v>56</v>
       </c>
       <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1451</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
-        <v>159</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>415</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1289</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>1448</v>
+        <v>1867</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1813,10 +1813,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>478</v>
+        <v>269</v>
       </c>
       <c r="D17" s="7">
-        <v>402281</v>
+        <v>203940</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>57</v>
@@ -1828,10 +1828,10 @@
         <v>57</v>
       </c>
       <c r="H17" s="7">
-        <v>460</v>
+        <v>281</v>
       </c>
       <c r="I17" s="7">
-        <v>348778</v>
+        <v>198267</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>57</v>
@@ -1843,10 +1843,10 @@
         <v>57</v>
       </c>
       <c r="M17" s="7">
-        <v>938</v>
+        <v>550</v>
       </c>
       <c r="N17" s="7">
-        <v>751059</v>
+        <v>402207</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>57</v>
@@ -1860,55 +1860,55 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>5</v>
+        <v>293</v>
       </c>
       <c r="D18" s="7">
-        <v>3659</v>
+        <v>256941</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="7">
+        <v>290</v>
+      </c>
+      <c r="I18" s="7">
+        <v>223207</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>583</v>
+      </c>
+      <c r="N18" s="7">
+        <v>480147</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H18" s="7">
-        <v>9</v>
-      </c>
-      <c r="I18" s="7">
-        <v>5993</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M18" s="7">
-        <v>14</v>
-      </c>
-      <c r="N18" s="7">
-        <v>9652</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1917,49 +1917,49 @@
         <v>20</v>
       </c>
       <c r="C19" s="7">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="D19" s="7">
-        <v>30316</v>
+        <v>92320</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="7">
+        <v>94</v>
+      </c>
+      <c r="I19" s="7">
+        <v>71706</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>205</v>
+      </c>
+      <c r="N19" s="7">
+        <v>164025</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H19" s="7">
-        <v>27</v>
-      </c>
-      <c r="I19" s="7">
-        <v>17697</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M19" s="7">
-        <v>69</v>
-      </c>
-      <c r="N19" s="7">
-        <v>48013</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1968,49 +1968,49 @@
         <v>30</v>
       </c>
       <c r="C20" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D20" s="7">
-        <v>34481</v>
+        <v>37697</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="7">
+        <v>52</v>
+      </c>
+      <c r="I20" s="7">
+        <v>36564</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>105</v>
+      </c>
+      <c r="N20" s="7">
+        <v>74262</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H20" s="7">
-        <v>51</v>
-      </c>
-      <c r="I20" s="7">
-        <v>33747</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M20" s="7">
-        <v>100</v>
-      </c>
-      <c r="N20" s="7">
-        <v>68228</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2019,100 +2019,100 @@
         <v>40</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D21" s="7">
-        <v>1451</v>
+        <v>11974</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" s="7">
+        <v>17</v>
+      </c>
+      <c r="I21" s="7">
+        <v>11385</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1</v>
-      </c>
-      <c r="I21" s="7">
-        <v>415</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>139</v>
       </c>
       <c r="M21" s="7">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="N21" s="7">
-        <v>1867</v>
+        <v>23359</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C22" s="7">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>133127</v>
+        <v>159</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H22" s="7">
-        <v>192</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>139711</v>
+        <v>1289</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M22" s="7">
+        <v>3</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1448</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="M22" s="7">
-        <v>362</v>
-      </c>
-      <c r="N22" s="7">
-        <v>272838</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2121,46 +2121,46 @@
         <v>56</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D23" s="7">
-        <v>906</v>
+        <v>3190</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>150</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I23" s="7">
-        <v>703</v>
+        <v>4628</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>152</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N23" s="7">
-        <v>1609</v>
+        <v>7818</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>153</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>154</v>
@@ -2172,10 +2172,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>269</v>
+        <v>478</v>
       </c>
       <c r="D24" s="7">
-        <v>203940</v>
+        <v>402281</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>57</v>
@@ -2187,10 +2187,10 @@
         <v>57</v>
       </c>
       <c r="H24" s="7">
-        <v>281</v>
+        <v>460</v>
       </c>
       <c r="I24" s="7">
-        <v>198267</v>
+        <v>348778</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>57</v>
@@ -2202,10 +2202,10 @@
         <v>57</v>
       </c>
       <c r="M24" s="7">
-        <v>550</v>
+        <v>938</v>
       </c>
       <c r="N24" s="7">
-        <v>402207</v>
+        <v>751059</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>57</v>
@@ -2225,49 +2225,49 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>33</v>
+        <v>587</v>
       </c>
       <c r="D25" s="7">
-        <v>21348</v>
+        <v>458360</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H25" s="7">
-        <v>33</v>
+        <v>598</v>
       </c>
       <c r="I25" s="7">
-        <v>21182</v>
+        <v>426939</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M25" s="7">
-        <v>66</v>
+        <v>1185</v>
       </c>
       <c r="N25" s="7">
-        <v>42530</v>
+        <v>885299</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,49 +2276,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="D26" s="7">
-        <v>78705</v>
+        <v>144681</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H26" s="7">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="I26" s="7">
-        <v>62373</v>
+        <v>122243</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
-        <v>208</v>
+        <v>377</v>
       </c>
       <c r="N26" s="7">
-        <v>141078</v>
+        <v>266924</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,49 +2327,49 @@
         <v>30</v>
       </c>
       <c r="C27" s="7">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="D27" s="7">
-        <v>144681</v>
+        <v>78705</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H27" s="7">
+        <v>93</v>
+      </c>
+      <c r="I27" s="7">
+        <v>62373</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M27" s="7">
+        <v>208</v>
+      </c>
+      <c r="N27" s="7">
+        <v>141078</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="I27" s="7">
-        <v>122243</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M27" s="7">
-        <v>377</v>
-      </c>
-      <c r="N27" s="7">
-        <v>266924</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,91 +2378,91 @@
         <v>40</v>
       </c>
       <c r="C28" s="7">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D28" s="7">
-        <v>4641</v>
+        <v>21348</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H28" s="7">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="I28" s="7">
-        <v>5043</v>
+        <v>21182</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="M28" s="7">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="N28" s="7">
-        <v>9684</v>
+        <v>42530</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>186</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7">
-        <v>587</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>458360</v>
+        <v>1065</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>188</v>
+        <v>51</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H29" s="7">
-        <v>598</v>
+        <v>3</v>
       </c>
       <c r="I29" s="7">
-        <v>426939</v>
+        <v>1992</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>192</v>
       </c>
       <c r="M29" s="7">
-        <v>1185</v>
+        <v>5</v>
       </c>
       <c r="N29" s="7">
-        <v>885299</v>
+        <v>3058</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>193</v>
@@ -2471,7 +2471,7 @@
         <v>194</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>195</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,49 +2480,49 @@
         <v>56</v>
       </c>
       <c r="C30" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D30" s="7">
-        <v>1065</v>
+        <v>4641</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="G30" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="H30" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I30" s="7">
-        <v>1992</v>
+        <v>5043</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>198</v>
+        <v>86</v>
       </c>
       <c r="M30" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N30" s="7">
-        <v>3058</v>
+        <v>9684</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP3109_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3109_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA4B9E89-EE01-4206-9D2C-2C0539A547B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54B335B6-B50C-475B-8055-73071A9D1C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5E276E83-7A6A-4502-86BC-C0938C5B6935}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{06776D64-654E-478E-90C7-924B9C8253F1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="201">
-  <si>
-    <t>Menores según la frecuencia de tomar  leche o lácteos en 2023 (Tasa respuesta: 96,51%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="249">
+  <si>
+    <t>Menores según la frecuencia de tomar leche o lácteos en 2023 (Tasa respuesta: 96,51%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,460 +65,712 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>1 ó 2 veces semana</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>3 ó 4 veces semana</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>5 ó 6 veces semana</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
   </si>
   <si>
     <t>Todos los días</t>
   </si>
   <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
   </si>
   <si>
     <t>61,46%</t>
   </si>
   <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>5 ó 6 veces semana</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
   </si>
   <si>
     <t>21,94%</t>
   </si>
   <si>
-    <t>3 ó 4 veces semana</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>1 ó 2 veces semana</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
     <t>64,67%</t>
   </si>
   <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
   </si>
   <si>
     <t>66,73%</t>
   </si>
   <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
   </si>
   <si>
     <t>65,65%</t>
@@ -527,118 +779,10 @@
     <t>63,22%</t>
   </si>
   <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -649,7 +793,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -745,39 +889,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -829,7 +973,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -940,13 +1084,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -955,6 +1092,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1019,19 +1163,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C828C0A1-7DB7-4158-8C97-309180088505}">
-  <dimension ref="A1:Q31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73FC804-F5F3-4382-A03D-256CD36089DA}">
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1148,10 +1312,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>68291</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1163,265 +1327,265 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>64021</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>240</v>
-      </c>
-      <c r="N4" s="7">
-        <v>132312</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>17881</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>16790</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>34671</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3665</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="7">
-        <v>10692</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="H6" s="7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>8112</v>
+        <v>2547</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="N6" s="7">
-        <v>18804</v>
+        <v>6212</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C7" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>5715</v>
+        <v>3111</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>3804</v>
+        <v>4691</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>9519</v>
+        <v>7802</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>9609</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>7897</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>17506</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>26758</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>31158</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>51</v>
@@ -1430,22 +1594,22 @@
         <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="7">
+        <v>104</v>
+      </c>
+      <c r="N9" s="7">
+        <v>57916</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="P9" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1454,10 +1618,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="7">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="D10" s="7">
-        <v>102579</v>
+        <v>43144</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>57</v>
@@ -1469,10 +1633,10 @@
         <v>57</v>
       </c>
       <c r="H10" s="7">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="I10" s="7">
-        <v>92727</v>
+        <v>46293</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>57</v>
@@ -1484,10 +1648,10 @@
         <v>57</v>
       </c>
       <c r="M10" s="7">
-        <v>365</v>
+        <v>164</v>
       </c>
       <c r="N10" s="7">
-        <v>195306</v>
+        <v>89436</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1507,304 +1671,304 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>133127</v>
+        <v>777</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>415</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="7">
-        <v>192</v>
-      </c>
-      <c r="I11" s="7">
-        <v>139711</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>2</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1193</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="M11" s="7">
-        <v>362</v>
-      </c>
-      <c r="N11" s="7">
-        <v>272838</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>34481</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H12" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>33747</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="M12" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>68228</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C13" s="7">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>30316</v>
+        <v>4306</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>17697</v>
+        <v>3008</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="N13" s="7">
-        <v>48013</v>
+        <v>7314</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D14" s="7">
-        <v>3659</v>
+        <v>22643</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I14" s="7">
-        <v>5993</v>
+        <v>15944</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="N14" s="7">
-        <v>9652</v>
+        <v>38587</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="7">
+        <v>51</v>
+      </c>
+      <c r="D15" s="7">
+        <v>30147</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="7">
         <v>50</v>
       </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7">
-        <v>906</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
       <c r="I15" s="7">
-        <v>703</v>
+        <v>27547</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="M15" s="7">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="N15" s="7">
-        <v>1609</v>
+        <v>57694</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="D16" s="7">
-        <v>1451</v>
+        <v>116844</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="I16" s="7">
-        <v>415</v>
+        <v>111850</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>355</v>
       </c>
       <c r="N16" s="7">
-        <v>1867</v>
+        <v>228694</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1813,10 +1977,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D17" s="7">
-        <v>203940</v>
+        <v>174717</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>57</v>
@@ -1828,10 +1992,10 @@
         <v>57</v>
       </c>
       <c r="H17" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I17" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>57</v>
@@ -1843,10 +2007,10 @@
         <v>57</v>
       </c>
       <c r="M17" s="7">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="N17" s="7">
-        <v>402207</v>
+        <v>333482</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>57</v>
@@ -1860,310 +2024,310 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>293</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>256941</v>
+        <v>1649</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H18" s="7">
-        <v>290</v>
+        <v>2</v>
       </c>
       <c r="I18" s="7">
-        <v>223207</v>
+        <v>1444</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="M18" s="7">
-        <v>583</v>
+        <v>4</v>
       </c>
       <c r="N18" s="7">
-        <v>480147</v>
+        <v>3093</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>906</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>703</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M19" s="7">
+        <v>2</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1609</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="7">
-        <v>92320</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H19" s="7">
-        <v>94</v>
-      </c>
-      <c r="I19" s="7">
-        <v>71706</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M19" s="7">
-        <v>205</v>
-      </c>
-      <c r="N19" s="7">
-        <v>164025</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="P19" s="7" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>37697</v>
+        <v>3340</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="I20" s="7">
-        <v>36564</v>
+        <v>5680</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="N20" s="7">
-        <v>74262</v>
+        <v>9020</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C21" s="7">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D21" s="7">
-        <v>11974</v>
+        <v>28678</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="H21" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I21" s="7">
-        <v>11385</v>
+        <v>14452</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="M21" s="7">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="N21" s="7">
-        <v>23359</v>
+        <v>43130</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D22" s="7">
-        <v>159</v>
+        <v>31707</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="I22" s="7">
-        <v>1289</v>
+        <v>27150</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="N22" s="7">
-        <v>1448</v>
+        <v>58857</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C23" s="7">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="D23" s="7">
-        <v>3190</v>
+        <v>135666</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H23" s="7">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="I23" s="7">
-        <v>4628</v>
+        <v>126683</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="M23" s="7">
-        <v>9</v>
+        <v>318</v>
       </c>
       <c r="N23" s="7">
-        <v>7818</v>
+        <v>262348</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2172,10 +2336,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>478</v>
+        <v>242</v>
       </c>
       <c r="D24" s="7">
-        <v>402281</v>
+        <v>201945</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>57</v>
@@ -2187,10 +2351,10 @@
         <v>57</v>
       </c>
       <c r="H24" s="7">
-        <v>460</v>
+        <v>233</v>
       </c>
       <c r="I24" s="7">
-        <v>348778</v>
+        <v>176113</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>57</v>
@@ -2202,10 +2366,10 @@
         <v>57</v>
       </c>
       <c r="M24" s="7">
-        <v>938</v>
+        <v>475</v>
       </c>
       <c r="N24" s="7">
-        <v>751059</v>
+        <v>378057</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>57</v>
@@ -2219,310 +2383,310 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>587</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>458360</v>
+        <v>2215</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H25" s="7">
-        <v>598</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>426939</v>
+        <v>3184</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="M25" s="7">
-        <v>1185</v>
+        <v>6</v>
       </c>
       <c r="N25" s="7">
-        <v>885299</v>
+        <v>5399</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C26" s="7">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>144681</v>
+        <v>159</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="H26" s="7">
-        <v>181</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>122243</v>
+        <v>1289</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
-        <v>377</v>
+        <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>266924</v>
+        <v>1448</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C27" s="7">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="D27" s="7">
-        <v>78705</v>
+        <v>10037</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H27" s="7">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="I27" s="7">
-        <v>62373</v>
+        <v>9947</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="M27" s="7">
-        <v>208</v>
+        <v>28</v>
       </c>
       <c r="N27" s="7">
-        <v>141078</v>
+        <v>19985</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C28" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D28" s="7">
-        <v>21348</v>
+        <v>24272</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="H28" s="7">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I28" s="7">
-        <v>21182</v>
+        <v>27286</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="M28" s="7">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="N28" s="7">
-        <v>42530</v>
+        <v>51558</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="D29" s="7">
-        <v>1065</v>
+        <v>73218</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H29" s="7">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="I29" s="7">
-        <v>1992</v>
+        <v>59649</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="M29" s="7">
-        <v>5</v>
+        <v>162</v>
       </c>
       <c r="N29" s="7">
-        <v>3058</v>
+        <v>132867</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>55</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C30" s="7">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="D30" s="7">
-        <v>4641</v>
+        <v>179092</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H30" s="7">
+        <v>205</v>
+      </c>
+      <c r="I30" s="7">
+        <v>157248</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M30" s="7">
+        <v>408</v>
+      </c>
+      <c r="N30" s="7">
+        <v>336340</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H30" s="7">
-        <v>6</v>
-      </c>
-      <c r="I30" s="7">
-        <v>5043</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M30" s="7">
-        <v>12</v>
-      </c>
-      <c r="N30" s="7">
-        <v>9684</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,55 +2695,420 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>341</v>
+      </c>
+      <c r="D31" s="7">
+        <v>288994</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="7">
+        <v>340</v>
+      </c>
+      <c r="I31" s="7">
+        <v>258603</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M31" s="7">
+        <v>681</v>
+      </c>
+      <c r="N31" s="7">
+        <v>547597</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7">
+        <v>4641</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H32" s="7">
+        <v>6</v>
+      </c>
+      <c r="I32" s="7">
+        <v>5043</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="M32" s="7">
+        <v>12</v>
+      </c>
+      <c r="N32" s="7">
+        <v>9684</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1065</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H33" s="7">
+        <v>3</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1992</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M33" s="7">
+        <v>5</v>
+      </c>
+      <c r="N33" s="7">
+        <v>3058</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="7">
+        <v>33</v>
+      </c>
+      <c r="D34" s="7">
+        <v>21348</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H34" s="7">
+        <v>33</v>
+      </c>
+      <c r="I34" s="7">
+        <v>21182</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="M34" s="7">
+        <v>66</v>
+      </c>
+      <c r="N34" s="7">
+        <v>42530</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="7">
+        <v>115</v>
+      </c>
+      <c r="D35" s="7">
+        <v>78705</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H35" s="7">
+        <v>93</v>
+      </c>
+      <c r="I35" s="7">
+        <v>62373</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M35" s="7">
+        <v>208</v>
+      </c>
+      <c r="N35" s="7">
+        <v>141078</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="7">
+        <v>196</v>
+      </c>
+      <c r="D36" s="7">
+        <v>144681</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H36" s="7">
+        <v>181</v>
+      </c>
+      <c r="I36" s="7">
+        <v>122243</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M36" s="7">
+        <v>377</v>
+      </c>
+      <c r="N36" s="7">
+        <v>266924</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="7">
+        <v>587</v>
+      </c>
+      <c r="D37" s="7">
+        <v>458360</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H37" s="7">
+        <v>598</v>
+      </c>
+      <c r="I37" s="7">
+        <v>426939</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M37" s="7">
+        <v>1185</v>
+      </c>
+      <c r="N37" s="7">
+        <v>885299</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7">
         <v>939</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D38" s="7">
         <v>708800</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" s="7">
         <v>914</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I38" s="7">
         <v>639773</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M38" s="7">
         <v>1853</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N38" s="7">
         <v>1348573</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>57</v>
+      <c r="O38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A32:A38"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP3109_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3109_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54B335B6-B50C-475B-8055-73071A9D1C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71F8F561-1788-4B76-9782-57902B25DB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{06776D64-654E-478E-90C7-924B9C8253F1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F61A637-326E-4ED1-AA04-8FC57272E945}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="247">
   <si>
     <t>Menores según la frecuencia de tomar leche o lácteos en 2023 (Tasa respuesta: 96,51%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>8,5%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
   </si>
   <si>
     <t>6,95%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
   </si>
   <si>
     <t>3 ó 4 veces semana</t>
@@ -125,28 +125,28 @@
     <t>7,21%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
   </si>
   <si>
     <t>8,72%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
   </si>
   <si>
     <t>5 ó 6 veces semana</t>
@@ -155,28 +155,28 @@
     <t>22,27%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
   </si>
   <si>
     <t>17,06%</t>
   </si>
   <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
   </si>
   <si>
     <t>19,57%</t>
   </si>
   <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
   </si>
   <si>
     <t>Todos los días</t>
@@ -185,28 +185,28 @@
     <t>62,02%</t>
   </si>
   <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
   </si>
   <si>
     <t>67,31%</t>
   </si>
   <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
   </si>
   <si>
     <t>64,76%</t>
   </si>
   <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
   </si>
   <si>
     <t>100%</t>
@@ -218,532 +218,526 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>2,41%</t>
+    <t>2,07%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>1,5%</t>
+    <t>1,32%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
   </si>
   <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
     <t>11,1%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
+    <t>13,33%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
   </si>
   <si>
     <t>20,41%</t>
   </si>
   <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
   </si>
   <si>
     <t>19,11%</t>
   </si>
   <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
   </si>
   <si>
     <t>19,79%</t>
@@ -752,34 +746,34 @@
     <t>17,79%</t>
   </si>
   <si>
-    <t>21,94%</t>
+    <t>21,83%</t>
   </si>
   <si>
     <t>64,67%</t>
   </si>
   <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
   </si>
   <si>
     <t>66,73%</t>
   </si>
   <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
   </si>
   <si>
     <t>65,65%</t>
   </si>
   <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1194,7 +1188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73FC804-F5F3-4382-A03D-256CD36089DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37C934D-1708-4263-B749-669092719FF1}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1797,10 +1791,10 @@
         <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -1809,13 +1803,13 @@
         <v>7314</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1830,13 +1824,13 @@
         <v>22643</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -1845,13 +1839,13 @@
         <v>15944</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>61</v>
@@ -1860,13 +1854,13 @@
         <v>38587</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,13 +1875,13 @@
         <v>30147</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H15" s="7">
         <v>50</v>
@@ -1896,13 +1890,13 @@
         <v>27547</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M15" s="7">
         <v>101</v>
@@ -1911,13 +1905,13 @@
         <v>57694</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,13 +1926,13 @@
         <v>116844</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>175</v>
@@ -1947,13 +1941,13 @@
         <v>111850</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>355</v>
@@ -1962,13 +1956,13 @@
         <v>228694</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2024,7 +2018,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2036,13 +2030,13 @@
         <v>1649</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -2051,13 +2045,13 @@
         <v>1444</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -2066,13 +2060,13 @@
         <v>3093</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2087,13 +2081,13 @@
         <v>906</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2102,13 +2096,13 @@
         <v>703</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2117,13 +2111,13 @@
         <v>1609</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,13 +2132,13 @@
         <v>3340</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -2153,13 +2147,13 @@
         <v>5680</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -2168,13 +2162,13 @@
         <v>9020</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,13 +2183,13 @@
         <v>28678</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H21" s="7">
         <v>20</v>
@@ -2204,13 +2198,13 @@
         <v>14452</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M21" s="7">
         <v>58</v>
@@ -2219,13 +2213,13 @@
         <v>43130</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,13 +2234,13 @@
         <v>31707</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="H22" s="7">
         <v>39</v>
@@ -2255,13 +2249,13 @@
         <v>27150</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M22" s="7">
         <v>81</v>
@@ -2270,13 +2264,13 @@
         <v>58857</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,13 +2285,13 @@
         <v>135666</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H23" s="7">
         <v>163</v>
@@ -2306,13 +2300,13 @@
         <v>126683</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M23" s="7">
         <v>318</v>
@@ -2321,13 +2315,13 @@
         <v>262348</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,7 +2377,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2395,13 +2389,13 @@
         <v>2215</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2410,13 +2404,13 @@
         <v>3184</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -2425,13 +2419,13 @@
         <v>5399</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,13 +2440,13 @@
         <v>159</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2461,13 +2455,13 @@
         <v>1289</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2479,10 +2473,10 @@
         <v>61</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,13 +2491,13 @@
         <v>10037</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H27" s="7">
         <v>15</v>
@@ -2512,13 +2506,13 @@
         <v>9947</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M27" s="7">
         <v>28</v>
@@ -2527,13 +2521,13 @@
         <v>19985</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,13 +2542,13 @@
         <v>24272</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H28" s="7">
         <v>39</v>
@@ -2563,13 +2557,13 @@
         <v>27286</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M28" s="7">
         <v>74</v>
@@ -2578,13 +2572,13 @@
         <v>51558</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,13 +2593,13 @@
         <v>73218</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H29" s="7">
         <v>76</v>
@@ -2614,13 +2608,13 @@
         <v>59649</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M29" s="7">
         <v>162</v>
@@ -2629,13 +2623,13 @@
         <v>132867</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,13 +2644,13 @@
         <v>179092</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H30" s="7">
         <v>205</v>
@@ -2665,13 +2659,13 @@
         <v>157248</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M30" s="7">
         <v>408</v>
@@ -2680,13 +2674,13 @@
         <v>336340</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,13 +2748,13 @@
         <v>4641</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -2769,13 +2763,13 @@
         <v>5043</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -2784,13 +2778,13 @@
         <v>9684</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,13 +2799,13 @@
         <v>1065</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -2820,13 +2814,13 @@
         <v>1992</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -2835,7 +2829,7 @@
         <v>3058</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>211</v>
@@ -2862,7 +2856,7 @@
         <v>214</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>215</v>
+        <v>123</v>
       </c>
       <c r="H34" s="7">
         <v>33</v>
@@ -2871,13 +2865,13 @@
         <v>21182</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M34" s="7">
         <v>66</v>
@@ -2886,13 +2880,13 @@
         <v>42530</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,13 +2901,13 @@
         <v>78705</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H35" s="7">
         <v>93</v>
@@ -2922,13 +2916,13 @@
         <v>62373</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M35" s="7">
         <v>208</v>
@@ -2937,13 +2931,13 @@
         <v>141078</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +2952,13 @@
         <v>144681</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H36" s="7">
         <v>181</v>
@@ -2973,13 +2967,13 @@
         <v>122243</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M36" s="7">
         <v>377</v>
@@ -2988,13 +2982,13 @@
         <v>266924</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,13 +3003,13 @@
         <v>458360</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H37" s="7">
         <v>598</v>
@@ -3024,13 +3018,13 @@
         <v>426939</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M37" s="7">
         <v>1185</v>
@@ -3039,13 +3033,13 @@
         <v>885299</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,7 +3095,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP3109_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3109_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71F8F561-1788-4B76-9782-57902B25DB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E44A492-92D3-4F4E-8F9F-93DF2B5294D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F61A637-326E-4ED1-AA04-8FC57272E945}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2E874312-3217-43FF-90BA-88285FE169AB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="248">
   <si>
     <t>Menores según la frecuencia de tomar leche o lácteos en 2023 (Tasa respuesta: 96,51%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -77,12 +77,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>2,28%</t>
+  </si>
+  <si>
     <t>2,34%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
     <t>1,16%</t>
   </si>
   <si>
@@ -92,688 +92,691 @@
     <t>1 ó 2 veces semana</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
+    <t>5,66%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
   </si>
   <si>
     <t>3 ó 4 veces semana</t>
   </si>
   <si>
-    <t>7,21%</t>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
   </si>
   <si>
     <t>3,04%</t>
   </si>
   <si>
-    <t>15,62%</t>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>5 ó 6 veces semana</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>Todos los días</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>5 ó 6 veces semana</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>Todos los días</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
   </si>
   <si>
     <t>17,35%</t>
   </si>
   <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1188,7 +1191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37C934D-1708-4263-B749-669092719FF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67590664-6811-481C-B474-D359E9DE29FD}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1408,10 +1411,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>3665</v>
+        <v>2630</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>18</v>
@@ -1423,10 +1426,10 @@
         <v>20</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>2547</v>
+        <v>3918</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>21</v>
@@ -1441,7 +1444,7 @@
         <v>12</v>
       </c>
       <c r="N6" s="7">
-        <v>6212</v>
+        <v>6548</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>24</v>
@@ -1459,10 +1462,10 @@
         <v>27</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>3111</v>
+        <v>4714</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>28</v>
@@ -1474,10 +1477,10 @@
         <v>30</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>4691</v>
+        <v>3391</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>31</v>
@@ -1492,7 +1495,7 @@
         <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>7802</v>
+        <v>8105</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>34</v>
@@ -1510,10 +1513,10 @@
         <v>37</v>
       </c>
       <c r="C8" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="7">
-        <v>9609</v>
+        <v>8100</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>38</v>
@@ -1525,10 +1528,10 @@
         <v>40</v>
       </c>
       <c r="H8" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" s="7">
-        <v>7897</v>
+        <v>9824</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>41</v>
@@ -1543,7 +1546,7 @@
         <v>33</v>
       </c>
       <c r="N8" s="7">
-        <v>17506</v>
+        <v>17924</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>44</v>
@@ -1561,10 +1564,10 @@
         <v>47</v>
       </c>
       <c r="C9" s="7">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D9" s="7">
-        <v>26758</v>
+        <v>31052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>48</v>
@@ -1576,10 +1579,10 @@
         <v>50</v>
       </c>
       <c r="H9" s="7">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I9" s="7">
-        <v>31158</v>
+        <v>28151</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>51</v>
@@ -1594,7 +1597,7 @@
         <v>104</v>
       </c>
       <c r="N9" s="7">
-        <v>57916</v>
+        <v>59202</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>54</v>
@@ -1612,25 +1615,25 @@
         <v>3</v>
       </c>
       <c r="C10" s="7">
+        <v>83</v>
+      </c>
+      <c r="D10" s="7">
+        <v>46495</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="7">
         <v>81</v>
       </c>
-      <c r="D10" s="7">
-        <v>43144</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="7">
-        <v>83</v>
-      </c>
       <c r="I10" s="7">
-        <v>46293</v>
+        <v>45285</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>57</v>
@@ -1645,7 +1648,7 @@
         <v>164</v>
       </c>
       <c r="N10" s="7">
-        <v>89436</v>
+        <v>91779</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1668,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>777</v>
+        <v>403</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
@@ -1683,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>415</v>
+        <v>951</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>61</v>
@@ -1698,7 +1701,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>1193</v>
+        <v>1355</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>63</v>
@@ -1758,7 +1761,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,49 +1770,49 @@
         <v>17</v>
       </c>
       <c r="C13" s="7">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2996</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="7">
         <v>8</v>
       </c>
-      <c r="D13" s="7">
-        <v>4306</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="7">
-        <v>6</v>
-      </c>
       <c r="I13" s="7">
-        <v>3008</v>
+        <v>4368</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
       </c>
       <c r="N13" s="7">
-        <v>7314</v>
+        <v>7364</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1818,49 +1821,49 @@
         <v>27</v>
       </c>
       <c r="C14" s="7">
+        <v>26</v>
+      </c>
+      <c r="D14" s="7">
+        <v>15905</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="7">
         <v>35</v>
       </c>
-      <c r="D14" s="7">
-        <v>22643</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="7">
-        <v>26</v>
-      </c>
       <c r="I14" s="7">
-        <v>15944</v>
+        <v>24402</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>61</v>
       </c>
       <c r="N14" s="7">
-        <v>38587</v>
+        <v>40306</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1869,31 +1872,31 @@
         <v>37</v>
       </c>
       <c r="C15" s="7">
+        <v>50</v>
+      </c>
+      <c r="D15" s="7">
+        <v>27327</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="7">
         <v>51</v>
       </c>
-      <c r="D15" s="7">
-        <v>30147</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="7">
-        <v>50</v>
-      </c>
       <c r="I15" s="7">
-        <v>27547</v>
+        <v>31079</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>90</v>
@@ -1902,7 +1905,7 @@
         <v>101</v>
       </c>
       <c r="N15" s="7">
-        <v>57694</v>
+        <v>58406</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>91</v>
@@ -1920,49 +1923,49 @@
         <v>47</v>
       </c>
       <c r="C16" s="7">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D16" s="7">
-        <v>116844</v>
+        <v>112668</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>180</v>
+      </c>
+      <c r="I16" s="7">
+        <v>121159</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="7">
-        <v>175</v>
-      </c>
-      <c r="I16" s="7">
-        <v>111850</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>355</v>
       </c>
       <c r="N16" s="7">
-        <v>228694</v>
+        <v>233828</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,25 +1974,25 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
+        <v>258</v>
+      </c>
+      <c r="D17" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="7">
         <v>275</v>
       </c>
-      <c r="D17" s="7">
-        <v>174717</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="7">
-        <v>258</v>
-      </c>
       <c r="I17" s="7">
-        <v>158765</v>
+        <v>181959</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>57</v>
@@ -2004,7 +2007,7 @@
         <v>533</v>
       </c>
       <c r="N17" s="7">
-        <v>333482</v>
+        <v>341259</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>57</v>
@@ -2018,7 +2021,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2027,25 +2030,25 @@
         <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>1649</v>
+        <v>1421</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
       </c>
       <c r="I18" s="7">
-        <v>1444</v>
+        <v>1824</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
@@ -2057,16 +2060,16 @@
         <v>4</v>
       </c>
       <c r="N18" s="7">
-        <v>3093</v>
+        <v>3245</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,46 +2081,46 @@
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>906</v>
+        <v>810</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>703</v>
+        <v>923</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>1609</v>
+        <v>1733</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,49 +2129,49 @@
         <v>17</v>
       </c>
       <c r="C20" s="7">
+        <v>8</v>
+      </c>
+      <c r="D20" s="7">
+        <v>5624</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="7">
         <v>4</v>
       </c>
-      <c r="D20" s="7">
-        <v>3340</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="7">
-        <v>8</v>
-      </c>
       <c r="I20" s="7">
-        <v>5680</v>
+        <v>3594</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
       </c>
       <c r="N20" s="7">
-        <v>9020</v>
+        <v>9218</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,49 +2180,49 @@
         <v>27</v>
       </c>
       <c r="C21" s="7">
+        <v>20</v>
+      </c>
+      <c r="D21" s="7">
+        <v>14217</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="7">
         <v>38</v>
       </c>
-      <c r="D21" s="7">
-        <v>28678</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H21" s="7">
-        <v>20</v>
-      </c>
       <c r="I21" s="7">
-        <v>14452</v>
+        <v>30942</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M21" s="7">
         <v>58</v>
       </c>
       <c r="N21" s="7">
-        <v>43130</v>
+        <v>45159</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,49 +2231,49 @@
         <v>37</v>
       </c>
       <c r="C22" s="7">
+        <v>39</v>
+      </c>
+      <c r="D22" s="7">
+        <v>25937</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" s="7">
         <v>42</v>
       </c>
-      <c r="D22" s="7">
-        <v>31707</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H22" s="7">
-        <v>39</v>
-      </c>
       <c r="I22" s="7">
-        <v>27150</v>
+        <v>32759</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>81</v>
       </c>
       <c r="N22" s="7">
-        <v>58857</v>
+        <v>58697</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,49 +2282,49 @@
         <v>47</v>
       </c>
       <c r="C23" s="7">
+        <v>163</v>
+      </c>
+      <c r="D23" s="7">
+        <v>125062</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="7">
         <v>155</v>
       </c>
-      <c r="D23" s="7">
-        <v>135666</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H23" s="7">
-        <v>163</v>
-      </c>
       <c r="I23" s="7">
-        <v>126683</v>
+        <v>141883</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M23" s="7">
         <v>318</v>
       </c>
       <c r="N23" s="7">
-        <v>262348</v>
+        <v>266946</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,25 +2333,25 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>233</v>
+      </c>
+      <c r="D24" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="7">
         <v>242</v>
       </c>
-      <c r="D24" s="7">
-        <v>201945</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="7">
-        <v>233</v>
-      </c>
       <c r="I24" s="7">
-        <v>176113</v>
+        <v>211925</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>57</v>
@@ -2363,7 +2366,7 @@
         <v>475</v>
       </c>
       <c r="N24" s="7">
-        <v>378057</v>
+        <v>384998</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>57</v>
@@ -2377,7 +2380,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2386,46 +2389,46 @@
         <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>2215</v>
+        <v>3064</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>3184</v>
+        <v>2548</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
       </c>
       <c r="N25" s="7">
-        <v>5399</v>
+        <v>5612</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,49 +2437,49 @@
         <v>16</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>159</v>
+        <v>1260</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="H26" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>1289</v>
+        <v>164</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>1448</v>
+        <v>1424</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,49 +2488,49 @@
         <v>17</v>
       </c>
       <c r="C27" s="7">
+        <v>15</v>
+      </c>
+      <c r="D27" s="7">
+        <v>9841</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H27" s="7">
         <v>13</v>
       </c>
-      <c r="D27" s="7">
-        <v>10037</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H27" s="7">
-        <v>15</v>
-      </c>
       <c r="I27" s="7">
-        <v>9947</v>
+        <v>10203</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M27" s="7">
         <v>28</v>
       </c>
       <c r="N27" s="7">
-        <v>19985</v>
+        <v>20044</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,49 +2539,49 @@
         <v>27</v>
       </c>
       <c r="C28" s="7">
+        <v>39</v>
+      </c>
+      <c r="D28" s="7">
+        <v>26735</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H28" s="7">
         <v>35</v>
       </c>
-      <c r="D28" s="7">
-        <v>24272</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H28" s="7">
-        <v>39</v>
-      </c>
       <c r="I28" s="7">
-        <v>27286</v>
+        <v>25764</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M28" s="7">
         <v>74</v>
       </c>
       <c r="N28" s="7">
-        <v>51558</v>
+        <v>52499</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,49 +2590,49 @@
         <v>37</v>
       </c>
       <c r="C29" s="7">
+        <v>76</v>
+      </c>
+      <c r="D29" s="7">
+        <v>59186</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H29" s="7">
         <v>86</v>
       </c>
-      <c r="D29" s="7">
-        <v>73218</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H29" s="7">
-        <v>76</v>
-      </c>
       <c r="I29" s="7">
-        <v>59649</v>
+        <v>75334</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M29" s="7">
         <v>162</v>
       </c>
       <c r="N29" s="7">
-        <v>132867</v>
+        <v>134520</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,49 +2641,49 @@
         <v>47</v>
       </c>
       <c r="C30" s="7">
+        <v>205</v>
+      </c>
+      <c r="D30" s="7">
+        <v>173357</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H30" s="7">
         <v>203</v>
       </c>
-      <c r="D30" s="7">
-        <v>179092</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H30" s="7">
-        <v>205</v>
-      </c>
       <c r="I30" s="7">
-        <v>157248</v>
+        <v>190985</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M30" s="7">
         <v>408</v>
       </c>
       <c r="N30" s="7">
-        <v>336340</v>
+        <v>364342</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,25 +2692,25 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>340</v>
+      </c>
+      <c r="D31" s="7">
+        <v>273443</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="7">
         <v>341</v>
       </c>
-      <c r="D31" s="7">
-        <v>288994</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="7">
-        <v>340</v>
-      </c>
       <c r="I31" s="7">
-        <v>258603</v>
+        <v>304999</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>57</v>
@@ -2722,7 +2725,7 @@
         <v>681</v>
       </c>
       <c r="N31" s="7">
-        <v>547597</v>
+        <v>578442</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>57</v>
@@ -2745,46 +2748,46 @@
         <v>6</v>
       </c>
       <c r="D32" s="7">
-        <v>4641</v>
+        <v>4889</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
       </c>
       <c r="I32" s="7">
-        <v>5043</v>
+        <v>5323</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
       </c>
       <c r="N32" s="7">
-        <v>9684</v>
+        <v>10211</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>203</v>
+        <v>69</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>204</v>
+        <v>67</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,49 +2796,49 @@
         <v>16</v>
       </c>
       <c r="C33" s="7">
+        <v>3</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2070</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H33" s="7">
         <v>2</v>
       </c>
-      <c r="D33" s="7">
-        <v>1065</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F33" s="7" t="s">
+      <c r="I33" s="7">
+        <v>1087</v>
+      </c>
+      <c r="J33" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H33" s="7">
-        <v>3</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1992</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="K33" s="7" t="s">
-        <v>209</v>
+        <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
       </c>
       <c r="N33" s="7">
-        <v>3058</v>
+        <v>3157</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,43 +2850,43 @@
         <v>33</v>
       </c>
       <c r="D34" s="7">
-        <v>21348</v>
+        <v>21091</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H34" s="7">
         <v>33</v>
       </c>
       <c r="I34" s="7">
-        <v>21182</v>
+        <v>22083</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M34" s="7">
         <v>66</v>
       </c>
       <c r="N34" s="7">
-        <v>42530</v>
+        <v>43175</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>219</v>
@@ -2895,49 +2898,49 @@
         <v>27</v>
       </c>
       <c r="C35" s="7">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="D35" s="7">
-        <v>78705</v>
+        <v>61570</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>220</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H35" s="7">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="I35" s="7">
-        <v>62373</v>
+        <v>84499</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M35" s="7">
         <v>208</v>
       </c>
       <c r="N35" s="7">
-        <v>141078</v>
+        <v>146069</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,49 +2949,49 @@
         <v>37</v>
       </c>
       <c r="C36" s="7">
+        <v>181</v>
+      </c>
+      <c r="D36" s="7">
+        <v>120549</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H36" s="7">
         <v>196</v>
       </c>
-      <c r="D36" s="7">
-        <v>144681</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H36" s="7">
-        <v>181</v>
-      </c>
       <c r="I36" s="7">
-        <v>122243</v>
+        <v>148997</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M36" s="7">
         <v>377</v>
       </c>
       <c r="N36" s="7">
-        <v>266924</v>
+        <v>269546</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2997,49 +3000,49 @@
         <v>47</v>
       </c>
       <c r="C37" s="7">
+        <v>598</v>
+      </c>
+      <c r="D37" s="7">
+        <v>442139</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H37" s="7">
         <v>587</v>
       </c>
-      <c r="D37" s="7">
-        <v>458360</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H37" s="7">
-        <v>598</v>
-      </c>
       <c r="I37" s="7">
-        <v>426939</v>
+        <v>482179</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M37" s="7">
         <v>1185</v>
       </c>
       <c r="N37" s="7">
-        <v>885299</v>
+        <v>924319</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,25 +3051,25 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>914</v>
+      </c>
+      <c r="D38" s="7">
+        <v>652309</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" s="7">
         <v>939</v>
       </c>
-      <c r="D38" s="7">
-        <v>708800</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H38" s="7">
-        <v>914</v>
-      </c>
       <c r="I38" s="7">
-        <v>639773</v>
+        <v>744169</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>57</v>
@@ -3081,7 +3084,7 @@
         <v>1853</v>
       </c>
       <c r="N38" s="7">
-        <v>1348573</v>
+        <v>1396478</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>57</v>
@@ -3095,7 +3098,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
